--- a/datos/GTM_Balances_Energeticos_2013-2020_REFERENCIA.xlsx
+++ b/datos/GTM_Balances_Energeticos_2013-2020_REFERENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AB2D6-89FE-4FDF-9161-24BBA96F8943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CCE95-C3AC-4E86-8EBB-3F5A4D701AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3326" windowWidth="15849" windowHeight="8965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013 - Guatemala" sheetId="1" r:id="rId1"/>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
@@ -1093,397 +1093,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
-        <v>21015.666435217401</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5">
-        <v>21113.158502591501</v>
-      </c>
-      <c r="G1" s="5">
-        <v>8021.6403356793098</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5">
-        <v>245738.99373997</v>
-      </c>
-      <c r="J1" s="5">
-        <v>51624.4593951637</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="6">
-        <v>347513.91840862198</v>
-      </c>
-      <c r="M1" s="5">
-        <v>37700.861820585102</v>
-      </c>
-      <c r="N1" s="5">
-        <v>0</v>
-      </c>
-      <c r="O1" s="5">
-        <v>0.92904888504262595</v>
-      </c>
-      <c r="P1" s="5">
-        <v>15.7938310457247</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>1495.88483602926</v>
-      </c>
-      <c r="R1" s="5">
-        <v>0</v>
-      </c>
-      <c r="S1" s="5">
-        <v>0</v>
-      </c>
-      <c r="T1" s="5">
-        <v>1989.1925654416</v>
-      </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5">
-        <v>1117.0070875978099</v>
-      </c>
-      <c r="X1" s="6">
-        <v>42319.669189584602</v>
-      </c>
-      <c r="Y1" s="6">
-        <v>347513.91840862198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
-        <v>37713.229783867297</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6">
-        <v>37713.229783867297</v>
-      </c>
-      <c r="M2" s="5">
-        <v>959.12684269588397</v>
-      </c>
-      <c r="N2" s="5">
-        <v>19110.8258931034</v>
-      </c>
-      <c r="O2" s="5">
-        <v>44589.410909844402</v>
-      </c>
-      <c r="P2" s="5">
-        <v>4237.2758335687904</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>56274.813589244499</v>
-      </c>
-      <c r="R2" s="5">
-        <v>19655.074343072502</v>
-      </c>
-      <c r="S2" s="5">
-        <v>5973.6101341581698</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="5">
-        <v>228.77828794174701</v>
-      </c>
-      <c r="X2" s="6">
-        <v>151028.915833629</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>188742.14561749701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
-        <v>18584.926158613998</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6">
-        <v>18584.926158613998</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2114.92172124423</v>
-      </c>
-      <c r="N3" s="5">
-        <v>5481.0980939749397</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1451.5808173237899</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1501.63332600546</v>
-      </c>
-      <c r="R3" s="5">
-        <v>70.956108595130601</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="5">
-        <v>515.56406564334304</v>
-      </c>
-      <c r="X3" s="6">
-        <v>11135.7541327869</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>29720.680291400899</v>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>338.231859710832</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
-        <v>-8709.0784450555493</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5">
-        <v>1763.9154393640699</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6">
-        <v>-6606.9311459806504</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5">
-        <v>-527.52557003826905</v>
-      </c>
-      <c r="O4" s="5">
-        <v>964.41080822956303</v>
-      </c>
-      <c r="P4" s="5">
-        <v>-1006.33413916711</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1817.8002746965301</v>
-      </c>
-      <c r="R4" s="5">
-        <v>-100.453410695234</v>
-      </c>
-      <c r="S4" s="5">
-        <v>-143.886446070977</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="5">
-        <v>294.27623433725199</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1298.2877512917501</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>-5308.6433946889001</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>21015.666435217401</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>21113.158502591501</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8021.6403356793098</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5">
+        <v>245738.99373997</v>
+      </c>
+      <c r="J5" s="5">
+        <v>51624.4593951637</v>
+      </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="L5" s="6">
+        <v>347513.91840862198</v>
+      </c>
+      <c r="M5" s="5">
+        <v>37700.861820585102</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.92904888504262595</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15.7938310457247</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1495.88483602926</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1989.1925654416</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="W5" s="5">
+        <v>1117.0070875978099</v>
+      </c>
+      <c r="X5" s="6">
+        <v>42319.669189584602</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>347513.91840862198</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2768.9721363142198</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6">
-        <v>29004.1513388118</v>
-      </c>
-      <c r="F6" s="6">
-        <v>21113.158502591501</v>
-      </c>
-      <c r="G6" s="6">
-        <v>8021.6403356793098</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6">
-        <v>247502.909179334</v>
-      </c>
-      <c r="J6" s="6">
-        <v>51624.4593951637</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
+        <v>37713.229783867297</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="6">
-        <v>360035.29088789399</v>
-      </c>
-      <c r="M6" s="6">
-        <v>36545.066942036799</v>
-      </c>
-      <c r="N6" s="6">
-        <v>13102.2022290902</v>
-      </c>
-      <c r="O6" s="6">
-        <v>44103.169949635201</v>
-      </c>
-      <c r="P6" s="6">
-        <v>3246.7355254474101</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>58086.865373964902</v>
-      </c>
-      <c r="R6" s="6">
-        <v>19483.664823782099</v>
-      </c>
-      <c r="S6" s="6">
-        <v>5829.7236880871897</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1989.1925654416</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="6">
-        <v>1124.4975442334701</v>
+        <v>37713.229783867297</v>
+      </c>
+      <c r="M6" s="5">
+        <v>959.12684269588397</v>
+      </c>
+      <c r="N6" s="5">
+        <v>19110.8258931034</v>
+      </c>
+      <c r="O6" s="5">
+        <v>44589.410909844402</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4237.2758335687904</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>56274.813589244499</v>
+      </c>
+      <c r="R6" s="5">
+        <v>19655.074343072502</v>
+      </c>
+      <c r="S6" s="5">
+        <v>5973.6101341581698</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5">
+        <v>228.77828794174701</v>
       </c>
       <c r="X6" s="6">
-        <v>183511.11864171899</v>
+        <v>151028.915833629</v>
       </c>
       <c r="Y6" s="6">
-        <v>501226.74034002901</v>
+        <v>188742.14561749701</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>-2768.9721363142398</v>
+        <v>18584.926158613998</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="6">
-        <v>-2768.9721363142398</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>18584.926158613998</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2114.92172124423</v>
+      </c>
       <c r="N7" s="5">
-        <v>0</v>
+        <v>5481.0980939749397</v>
       </c>
       <c r="O7" s="5">
-        <v>0.92904888504262595</v>
+        <v>1451.5808173237899</v>
       </c>
       <c r="P7" s="5">
-        <v>15.7938310457247</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>1495.88483602926</v>
+        <v>1501.63332600546</v>
       </c>
       <c r="R7" s="5">
-        <v>0</v>
+        <v>70.956108595130601</v>
       </c>
       <c r="S7" s="5">
         <v>0</v>
@@ -1492,255 +1436,333 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="5">
-        <v>1117.0070875978099</v>
+        <v>515.56406564334304</v>
       </c>
       <c r="X7" s="6">
-        <v>2629.6148035578399</v>
+        <v>11135.7541327869</v>
       </c>
       <c r="Y7" s="6">
-        <v>-139.35733275639399</v>
+        <v>29720.680291400899</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>338.231859710832</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5">
-        <v>-28460.715806617201</v>
+        <v>-8709.0784450555493</v>
       </c>
       <c r="F8" s="5">
-        <v>-21011.195387458101</v>
-      </c>
-      <c r="G8" s="5">
-        <v>-8021.6403356793098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5">
-        <v>-1763.9154393640699</v>
+        <v>1763.9154393640699</v>
       </c>
       <c r="J8" s="5">
-        <v>-34260.535733716999</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="6">
-        <v>-93518.002702835598</v>
-      </c>
-      <c r="M8" s="5">
-        <v>34795.203367059003</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+        <v>-6606.9311459806504</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5">
+        <v>-527.52557003826905</v>
+      </c>
+      <c r="O8" s="5">
+        <v>964.41080822956303</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-1006.33413916711</v>
+      </c>
       <c r="Q8" s="5">
-        <v>-93.427478502099405</v>
+        <v>1817.8002746965301</v>
       </c>
       <c r="R8" s="5">
-        <v>-11546.567936641701</v>
-      </c>
-      <c r="S8" s="4"/>
+        <v>-100.453410695234</v>
+      </c>
+      <c r="S8" s="5">
+        <v>-143.886446070977</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="5">
+        <v>294.27623433725199</v>
+      </c>
       <c r="X8" s="6">
-        <v>34795.203367059003</v>
+        <v>1298.2877512917501</v>
       </c>
       <c r="Y8" s="6">
-        <v>-70362.794750920395</v>
+        <v>-5308.6433946889001</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5">
-        <v>-543.43553219462297</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-101.963115133428</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5">
-        <v>-17363.923661446701</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="6">
-        <v>-18009.322308774801</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2905.65845352613</v>
-      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="5">
-        <v>-6606.8730804253501</v>
-      </c>
+      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="6">
-        <v>2905.65845352613</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>-21710.536935674001</v>
-      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="4">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2768.9721363142198</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>29004.1513388118</v>
+      </c>
+      <c r="F10" s="6">
+        <v>21113.158502591501</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8021.6403356793098</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6">
+        <v>247502.909179334</v>
+      </c>
+      <c r="J10" s="6">
+        <v>51624.4593951637</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6">
+        <v>360035.29088789399</v>
+      </c>
+      <c r="M10" s="6">
+        <v>36545.066942036799</v>
+      </c>
+      <c r="N10" s="6">
+        <v>13102.2022290902</v>
+      </c>
+      <c r="O10" s="6">
+        <v>44103.169949635201</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3246.7355254474101</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>58086.865373964902</v>
+      </c>
+      <c r="R10" s="6">
+        <v>19483.664823782099</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5829.7236880871897</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1989.1925654416</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="6">
+        <v>1124.4975442334701</v>
+      </c>
+      <c r="X10" s="6">
+        <v>183511.11864171899</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>501226.74034002901</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-2768.9721363142398</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5">
-        <v>-4151.3862301424097</v>
-      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6">
-        <v>-4151.3862301424097</v>
+        <v>-2768.9721363142398</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="5">
-        <v>1989.1925654416</v>
-      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.92904888504262595</v>
+      </c>
+      <c r="P11" s="5">
+        <v>15.7938310457247</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1495.88483602926</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="W11" s="5">
+        <v>1117.0070875978099</v>
+      </c>
       <c r="X11" s="6">
-        <v>1989.1925654416</v>
+        <v>2629.6148035578399</v>
       </c>
       <c r="Y11" s="6">
-        <v>-2162.1936647008101</v>
+        <v>-139.35733275639399</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="5">
+        <v>-28460.715806617201</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-21011.195387458101</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-8021.6403356793098</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="5">
+        <v>-1763.9154393640699</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-34260.535733716999</v>
+      </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="6">
+        <v>-93518.002702835598</v>
+      </c>
+      <c r="M12" s="5">
+        <v>34795.203367059003</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="5">
+        <v>-93.427478502099405</v>
+      </c>
+      <c r="R12" s="5">
+        <v>-11546.567936641701</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="X12" s="6">
+        <v>34795.203367059003</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>-70362.794750920395</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="5">
+        <v>-543.43553219462297</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-101.963115133428</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5">
+        <v>-17363.923661446701</v>
+      </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="6">
+        <v>-18009.322308774801</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2905.65845352613</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="5">
+        <v>-6606.8730804253501</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="X13" s="6">
+        <v>2905.65845352613</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>-21710.536935674001</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1767,64 +1789,52 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
+      <c r="A15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-2768.9721363142398</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6">
-        <v>-29004.1513388118</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-21113.158502591501</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-8021.6403356793098</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6">
-        <v>-5915.3016695064798</v>
-      </c>
-      <c r="J15" s="6">
-        <v>-51624.4593951637</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5">
+        <v>-4151.3862301424097</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="6">
-        <v>-118447.683378067</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="6">
-        <v>-93.427478502099405</v>
-      </c>
-      <c r="R15" s="6">
-        <v>-18153.441017067002</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+        <v>-4151.3862301424097</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5">
+        <v>1989.1925654416</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
       <c r="X15" s="6">
-        <v>-18246.868495569099</v>
+        <v>1989.1925654416</v>
       </c>
       <c r="Y15" s="6">
-        <v>-94374.882684051496</v>
+        <v>-2162.1936647008101</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1836,14 +1846,10 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="5">
-        <v>1383.24344384043</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="5">
-        <v>15.7999049931384</v>
-      </c>
+      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -1851,19 +1857,15 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="6">
-        <v>1399.04334883357</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>1399.04334883357</v>
-      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1875,9 +1877,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="5">
-        <v>4314.762428993</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1888,125 +1888,99 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="6">
-        <v>4314.762428993</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>4314.762428993</v>
-      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>43</v>
+      <c r="A18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="4">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-2.0463997029424801E-11</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6">
-        <v>5.2810314914644697E-12</v>
-      </c>
-      <c r="F18" s="6">
-        <v>-7.9215472371967094E-12</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6">
-        <v>-4.6473077124887401E-10</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="6">
-        <v>-4.6473077124887401E-10</v>
-      </c>
-      <c r="M18" s="6">
-        <v>839.36273787963103</v>
-      </c>
-      <c r="N18" s="6">
-        <v>5.8065555290026501E-2</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0.92904888502065797</v>
-      </c>
-      <c r="P18" s="6">
-        <v>5.1991607903270301E-2</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1495.9429015845501</v>
-      </c>
-      <c r="R18" s="6">
-        <v>-5.8065555303064002E-2</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1.51829655379604E-11</v>
-      </c>
-      <c r="T18" s="6">
-        <v>-3.3006446821653001E-13</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="6">
-        <v>1.6503223410826501E-13</v>
-      </c>
-      <c r="X18" s="6">
-        <v>2336.2866799570802</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>2336.2866799568101</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
+      <c r="A19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="4">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5">
-        <v>130.99589279100999</v>
-      </c>
-      <c r="O19" s="5">
-        <v>43001.5502341959</v>
-      </c>
-      <c r="P19" s="5">
-        <v>2150.9223655396299</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>51977.6721681458</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2768.9721363142398</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <v>-29004.1513388118</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-21113.158502591501</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-8021.6403356793098</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6">
+        <v>-5915.3016695064798</v>
+      </c>
+      <c r="J19" s="6">
+        <v>-51624.4593951637</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="6">
+        <v>-118447.683378067</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="6">
+        <v>-93.427478502099405</v>
+      </c>
+      <c r="R19" s="6">
+        <v>-18153.441017067002</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="6">
-        <v>97261.140660672405</v>
+        <v>-18246.868495569099</v>
       </c>
       <c r="Y19" s="6">
-        <v>97261.140660672405</v>
+        <v>-94374.882684051496</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2019,43 +1993,33 @@
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="5">
-        <v>11128.960462814999</v>
-      </c>
-      <c r="N20" s="5">
-        <v>2620.4404458180502</v>
-      </c>
-      <c r="O20" s="5">
-        <v>880.56414635446595</v>
-      </c>
+        <v>1383.24344384043</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="5">
-        <v>129.60231946344601</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>4519.8228257323799</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1330.2818722704101</v>
-      </c>
-      <c r="S20" s="5">
-        <v>5829.7236880871797</v>
-      </c>
+        <v>15.7999049931384</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="6">
-        <v>26439.395760541</v>
+        <v>1399.04334883357</v>
       </c>
       <c r="Y20" s="6">
-        <v>26439.395760541</v>
+        <v>1399.04334883357</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2063,95 +2027,99 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5">
-        <v>234339.9810265</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="6">
-        <v>234339.9810265</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="5">
-        <v>11569.736093212399</v>
-      </c>
-      <c r="N21" s="5">
-        <v>10088.6579737885</v>
-      </c>
+        <v>4314.762428993</v>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="5">
-        <v>907.15817068880904</v>
-      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="5">
-        <v>1496.1690836529201</v>
-      </c>
+      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="6">
-        <v>24061.721321342699</v>
+        <v>4314.762428993</v>
       </c>
       <c r="Y21" s="6">
-        <v>258401.70234784199</v>
+        <v>4314.762428993</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
+      <c r="A22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="4">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5">
-        <v>7247.6264833281903</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-2.0463997029424801E-11</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <v>5.2810314914644697E-12</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-7.9215472371967094E-12</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6">
+        <v>-4.6473077124887401E-10</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="6">
-        <v>7247.6264833281903</v>
-      </c>
-      <c r="M22" s="5">
-        <v>7309.0017752963004</v>
-      </c>
-      <c r="N22" s="5">
-        <v>262.04985113733602</v>
-      </c>
-      <c r="O22" s="5">
-        <v>220.12652019978799</v>
-      </c>
-      <c r="P22" s="5">
-        <v>43.200773154482199</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="5">
-        <v>493.02348178868198</v>
-      </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+        <v>-4.6473077124887401E-10</v>
+      </c>
+      <c r="M22" s="6">
+        <v>839.36273787963103</v>
+      </c>
+      <c r="N22" s="6">
+        <v>5.8065555290026501E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.92904888502065797</v>
+      </c>
+      <c r="P22" s="6">
+        <v>5.1991607903270301E-2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1495.9429015845501</v>
+      </c>
+      <c r="R22" s="6">
+        <v>-5.8065555303064002E-2</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1.51829655379604E-11</v>
+      </c>
+      <c r="T22" s="6">
+        <v>-3.3006446821653001E-13</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="6">
+        <v>1.6503223410826501E-13</v>
+      </c>
       <c r="X22" s="6">
-        <v>8327.4024015765899</v>
+        <v>2336.2866799570802</v>
       </c>
       <c r="Y22" s="6">
-        <v>15575.028884904799</v>
+        <v>2336.2866799568101</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2164,25 +2132,37 @@
       <c r="K23" s="4"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="N23" s="5">
+        <v>130.99589279100999</v>
+      </c>
+      <c r="O23" s="5">
+        <v>43001.5502341959</v>
+      </c>
+      <c r="P23" s="5">
+        <v>2150.9223655396299</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>51977.6721681458</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="X23" s="6">
+        <v>97261.140660672405</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>97261.140660672405</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2194,519 +2174,539 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="M24" s="5">
+        <v>11128.960462814999</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2620.4404458180502</v>
+      </c>
+      <c r="O24" s="5">
+        <v>880.56414635446595</v>
+      </c>
+      <c r="P24" s="5">
+        <v>129.60231946344601</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>4519.8228257323799</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1330.2818722704101</v>
+      </c>
+      <c r="S24" s="5">
+        <v>5829.7236880871797</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="X24" s="6">
+        <v>26439.395760541</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>26439.395760541</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5">
+        <v>234339.9810265</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6">
+        <v>234339.9810265</v>
+      </c>
+      <c r="M25" s="5">
+        <v>11569.736093212399</v>
+      </c>
+      <c r="N25" s="5">
+        <v>10088.6579737885</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5">
+        <v>907.15817068880904</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="5">
+        <v>1496.1690836529201</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="6">
+        <v>24061.721321342699</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>258401.70234784199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5">
+        <v>7247.6264833281903</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6">
+        <v>7247.6264833281903</v>
+      </c>
+      <c r="M26" s="5">
+        <v>7309.0017752963004</v>
+      </c>
+      <c r="N26" s="5">
+        <v>262.04985113733602</v>
+      </c>
+      <c r="O26" s="5">
+        <v>220.12652019978799</v>
+      </c>
+      <c r="P26" s="5">
+        <v>43.200773154482199</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="5">
+        <v>493.02348178868198</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="6">
+        <v>8327.4024015765899</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>15575.028884904799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6">
         <v>241587.607509828</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="6">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="6">
         <v>241587.607509828</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M29" s="6">
         <v>30007.6983313237</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N29" s="6">
         <v>13102.1441635349</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O29" s="6">
         <v>44102.240900750199</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P29" s="6">
         <v>3230.8836288463699</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q29" s="6">
         <v>56497.494993878201</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R29" s="6">
         <v>1330.2818722704101</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S29" s="6">
         <v>5829.7236880871797</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T29" s="6">
         <v>1989.1925654416</v>
       </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="6">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="6">
         <v>156089.660144133</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y29" s="6">
         <v>397677.26765395998</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="6">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="6">
         <v>1124.4975442334701</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X30" s="6">
         <v>1124.4975442334701</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y30" s="6">
         <v>1124.4975442334701</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6">
         <v>241587.607509828</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="6">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="6">
         <v>241587.607509828</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M31" s="6">
         <v>30007.6983313237</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N31" s="6">
         <v>13102.1441635349</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O31" s="6">
         <v>44102.240900750199</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P31" s="6">
         <v>3230.8836288463699</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q31" s="6">
         <v>56497.494993878201</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R31" s="6">
         <v>1330.2818722704101</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S31" s="6">
         <v>5829.7236880871797</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T31" s="6">
         <v>1989.1925654416</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="6">
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="6">
         <v>1124.4975442334701</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X31" s="6">
         <v>157214.15768836599</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y31" s="6">
         <v>398801.76519819401</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <f>C1+C2+C3*(-1)+C4+C5*(-1)</f>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <f>C5+C6+C7*(-1)+C8+C9*(-1)</f>
         <v>2768.9721363142348</v>
       </c>
-      <c r="D29" s="1">
-        <f>D1+D2+D3*(-1)+D4+D5*(-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <f>E1+E2+E3*(-1)+E4+E5*(-1)</f>
+      <c r="D33" s="1">
+        <f>D5+D6+D7*(-1)+D8+D9*(-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f>E5+E6+E7*(-1)+E8+E9*(-1)</f>
         <v>29004.151338811746</v>
       </c>
-      <c r="F29" s="1">
-        <f>F1+F2+F3*(-1)+F4+F5*(-1)</f>
+      <c r="F33" s="1">
+        <f>F5+F6+F7*(-1)+F8+F9*(-1)</f>
         <v>21113.158502591501</v>
       </c>
-      <c r="G29" s="1">
-        <f>G1+G2+G3*(-1)+G4+G5*(-1)</f>
+      <c r="G33" s="1">
+        <f>G5+G6+G7*(-1)+G8+G9*(-1)</f>
         <v>8021.6403356793098</v>
       </c>
-      <c r="H29" s="1">
-        <f>H1+H2+H3*(-1)+H4+H5*(-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <f>I1+I2+I3*(-1)+I4+I5*(-1)</f>
+      <c r="H33" s="1">
+        <f>H5+H6+H7*(-1)+H8+H9*(-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f>I5+I6+I7*(-1)+I8+I9*(-1)</f>
         <v>247502.90917933406</v>
       </c>
-      <c r="J29" s="1">
-        <f>J1+J2+J3*(-1)+J4+J5*(-1)</f>
+      <c r="J33" s="1">
+        <f>J5+J6+J7*(-1)+J8+J9*(-1)</f>
         <v>51624.4593951637</v>
       </c>
-      <c r="K29" s="1">
-        <f>K1+K2+K3*(-1)+K4+K5*(-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <f>L1+L2+L3*(-1)+L4+L5*(-1)</f>
+      <c r="K33" s="1">
+        <f>K5+K6+K7*(-1)+K8+K9*(-1)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f>L5+L6+L7*(-1)+L8+L9*(-1)</f>
         <v>360035.29088789463</v>
       </c>
-      <c r="M29" s="1">
-        <f>M1+M2+M3*(-1)+M4+M5*(-1)</f>
+      <c r="M33" s="1">
+        <f>M5+M6+M7*(-1)+M8+M9*(-1)</f>
         <v>36545.066942036756</v>
       </c>
-      <c r="N29" s="1">
-        <f>N1+N2+N3*(-1)+N4+N5*(-1)</f>
+      <c r="N33" s="1">
+        <f>N5+N6+N7*(-1)+N8+N9*(-1)</f>
         <v>13102.202229090191</v>
       </c>
-      <c r="O29" s="1">
-        <f>O1+O2+O3*(-1)+O4+O5*(-1)</f>
+      <c r="O33" s="1">
+        <f>O5+O6+O7*(-1)+O8+O9*(-1)</f>
         <v>44103.169949635223</v>
       </c>
-      <c r="P29" s="1">
-        <f>P1+P2+P3*(-1)+P4+P5*(-1)</f>
+      <c r="P33" s="1">
+        <f>P5+P6+P7*(-1)+P8+P9*(-1)</f>
         <v>3246.7355254474051</v>
       </c>
-      <c r="Q29" s="1">
-        <f>Q1+Q2+Q3*(-1)+Q4+Q5*(-1)</f>
+      <c r="Q33" s="1">
+        <f>Q5+Q6+Q7*(-1)+Q8+Q9*(-1)</f>
         <v>58086.865373964829</v>
       </c>
-      <c r="R29" s="1">
-        <f>R1+R2+R3*(-1)+R4+R5*(-1)</f>
+      <c r="R33" s="1">
+        <f>R5+R6+R7*(-1)+R8+R9*(-1)</f>
         <v>19483.664823782135</v>
       </c>
-      <c r="S29" s="1">
-        <f>S1+S2+S3*(-1)+S4+S5*(-1)</f>
+      <c r="S33" s="1">
+        <f>S5+S6+S7*(-1)+S8+S9*(-1)</f>
         <v>5829.7236880871924</v>
       </c>
-      <c r="T29" s="1">
-        <f>T1+T2+T3*(-1)+T4+T5*(-1)</f>
+      <c r="T33" s="1">
+        <f>T5+T6+T7*(-1)+T8+T9*(-1)</f>
         <v>1989.1925654416</v>
       </c>
-      <c r="U29" s="1">
-        <f>U1+U2+U3*(-1)+U4+U5*(-1)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <f>V1+V2+V3*(-1)+V4+V5*(-1)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <f>W1+W2+W3*(-1)+W4+W5*(-1)</f>
+      <c r="U33" s="1">
+        <f>U5+U6+U7*(-1)+U8+U9*(-1)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <f>V5+V6+V7*(-1)+V8+V9*(-1)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <f>W5+W6+W7*(-1)+W8+W9*(-1)</f>
         <v>1124.497544233466</v>
       </c>
-      <c r="X29" s="1">
-        <f>X1+X2+X3*(-1)+X4+X5*(-1)</f>
+      <c r="X33" s="1">
+        <f>X5+X6+X7*(-1)+X8+X9*(-1)</f>
         <v>183511.11864171844</v>
       </c>
-      <c r="Y29" s="1">
-        <f>Y1+Y2+Y3*(-1)+Y4+Y5*(-1)</f>
+      <c r="Y33" s="1">
+        <f>Y5+Y6+Y7*(-1)+Y8+Y9*(-1)</f>
         <v>501226.74034002918</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <f>C1+C2-C3+C4-C6</f>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <f>C5+C6-C7+C8-C10</f>
         <v>1.5006662579253316E-11</v>
       </c>
-      <c r="D30" s="1">
-        <f>D1+D2-D3+D4-D6</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <f>E1+E2-E3+E4-E6</f>
+      <c r="D34" s="1">
+        <f>D5+D6-D7+D8-D10</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E5+E6-E7+E8-E10</f>
         <v>-5.4569682106375694E-11</v>
       </c>
-      <c r="F30" s="1">
-        <f>F1+F2-F3+F4-F6</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f>G1+G2-G3+G4-G6</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>H1+H2-H3+H4-H6</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <f>I1+I2-I3+I4-I6</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <f>J1+J2-J3+J4-J6</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <f>K1+K2-K3+K4-K6</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>L1+L2-L3+L4-L6</f>
+      <c r="F34" s="1">
+        <f>F5+F6-F7+F8-F10</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G5+G6-G7+G8-G10</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>H5+H6-H7+H8-H10</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I5+I6-I7+I8-I10</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f>J5+J6-J7+J8-J10</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f>K5+K6-K7+K8-K10</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f>L5+L6-L7+L8-L10</f>
         <v>6.4028427004814148E-10</v>
       </c>
-      <c r="M30" s="1">
-        <f>M1+M2-M3+M4-M6</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <f>N1+N2-N3+N4-N6</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <f>O1+O2-O3+O4-O6</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <f>P1+P2-P3+P4-P6</f>
+      <c r="M34" s="1">
+        <f>M5+M6-M7+M8-M10</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f>N5+N6-N7+N8-N10</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f>O5+O6-O7+O8-O10</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f>P5+P6-P7+P8-P10</f>
         <v>-5.0022208597511053E-12</v>
       </c>
-      <c r="Q30" s="1">
-        <f>Q1+Q2-Q3+Q4-Q6</f>
+      <c r="Q34" s="1">
+        <f>Q5+Q6-Q7+Q8-Q10</f>
         <v>-7.2759576141834259E-11</v>
       </c>
-      <c r="R30" s="1">
-        <f>R1+R2-R3+R4-R6</f>
+      <c r="R34" s="1">
+        <f>R5+R6-R7+R8-R10</f>
         <v>3.637978807091713E-11</v>
       </c>
-      <c r="S30" s="1">
-        <f>S1+S2-S3+S4-S6</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <f>T1+T2-T3+T4-T6</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <f>U1+U2-U3+U4-U6</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <f>V1+V2-V3+V4-V6</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <f>W1+W2-W3+W4-W6</f>
+      <c r="S34" s="1">
+        <f>S5+S6-S7+S8-S10</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f>T5+T6-T7+T8-T10</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f>U5+U6-U7+U8-U10</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <f>V5+V6-V7+V8-V10</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <f>W5+W6-W7+W8-W10</f>
         <v>-4.0927261579781771E-12</v>
       </c>
-      <c r="X30" s="1">
-        <f>X1+X2-X3+X4-X6</f>
+      <c r="X34" s="1">
+        <f>X5+X6-X7+X8-X10</f>
         <v>-5.5297277867794037E-10</v>
       </c>
-      <c r="Y30" s="1">
-        <f>Y1+Y2-Y3+Y4-Y6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>25</v>
+      <c r="Y34" s="1">
+        <f>Y5+Y6-Y7+Y8-Y10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -2720,95 +2720,95 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
-        <f>IF(C7&gt;0,0,C7*(-1))</f>
+        <f>IF(C11&gt;0,0,C11*(-1))</f>
         <v>2768.9721363142398</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:Y37" si="0">IF(D7&gt;0,0,D7*(-1))</f>
+        <f>IF(D11&gt;0,0,D11*(-1))</f>
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(E11&gt;0,0,E11*(-1))</f>
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(F11&gt;0,0,F11*(-1))</f>
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(G11&gt;0,0,G11*(-1))</f>
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(H11&gt;0,0,H11*(-1))</f>
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(I11&gt;0,0,I11*(-1))</f>
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(J11&gt;0,0,J11*(-1))</f>
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(K11&gt;0,0,K11*(-1))</f>
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(L11&gt;0,0,L11*(-1))</f>
         <v>2768.9721363142398</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(M11&gt;0,0,M11*(-1))</f>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(N11&gt;0,0,N11*(-1))</f>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(O11&gt;0,0,O11*(-1))</f>
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(P11&gt;0,0,P11*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(Q11&gt;0,0,Q11*(-1))</f>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(R11&gt;0,0,R11*(-1))</f>
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(S11&gt;0,0,S11*(-1))</f>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(T11&gt;0,0,T11*(-1))</f>
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(U11&gt;0,0,U11*(-1))</f>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(V11&gt;0,0,V11*(-1))</f>
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(W11&gt;0,0,W11*(-1))</f>
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(X11&gt;0,0,X11*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(Y11&gt;0,0,Y11*(-1))</f>
         <v>139.35733275639399</v>
       </c>
     </row>
@@ -2818,95 +2818,95 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:Y38" si="1">IF(C8&gt;0,0,C8*(-1))</f>
+        <f>IF(C12&gt;0,0,C12*(-1))</f>
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(D12&gt;0,0,D12*(-1))</f>
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(E12&gt;0,0,E12*(-1))</f>
         <v>28460.715806617201</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(F12&gt;0,0,F12*(-1))</f>
         <v>21011.195387458101</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(G12&gt;0,0,G12*(-1))</f>
         <v>8021.6403356793098</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(H12&gt;0,0,H12*(-1))</f>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(I12&gt;0,0,I12*(-1))</f>
         <v>1763.9154393640699</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(J12&gt;0,0,J12*(-1))</f>
         <v>34260.535733716999</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(K12&gt;0,0,K12*(-1))</f>
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L12&gt;0,0,L12*(-1))</f>
         <v>93518.002702835598</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(M12&gt;0,0,M12*(-1))</f>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(N12&gt;0,0,N12*(-1))</f>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(O12&gt;0,0,O12*(-1))</f>
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(P12&gt;0,0,P12*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(Q12&gt;0,0,Q12*(-1))</f>
         <v>93.427478502099405</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(R12&gt;0,0,R12*(-1))</f>
         <v>11546.567936641701</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(S12&gt;0,0,S12*(-1))</f>
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(T12&gt;0,0,T12*(-1))</f>
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(U12&gt;0,0,U12*(-1))</f>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(V12&gt;0,0,V12*(-1))</f>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(W12&gt;0,0,W12*(-1))</f>
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(X12&gt;0,0,X12*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(Y12&gt;0,0,Y12*(-1))</f>
         <v>70362.794750920395</v>
       </c>
     </row>
@@ -2916,95 +2916,95 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:Y39" si="2">IF(C9&gt;0,0,C9*(-1))</f>
+        <f>IF(C13&gt;0,0,C13*(-1))</f>
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(D13&gt;0,0,D13*(-1))</f>
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(E13&gt;0,0,E13*(-1))</f>
         <v>543.43553219462297</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(F13&gt;0,0,F13*(-1))</f>
         <v>101.963115133428</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G13&gt;0,0,G13*(-1))</f>
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(H13&gt;0,0,H13*(-1))</f>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(I13&gt;0,0,I13*(-1))</f>
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(J13&gt;0,0,J13*(-1))</f>
         <v>17363.923661446701</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(K13&gt;0,0,K13*(-1))</f>
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(L13&gt;0,0,L13*(-1))</f>
         <v>18009.322308774801</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(M13&gt;0,0,M13*(-1))</f>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(N13&gt;0,0,N13*(-1))</f>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(O13&gt;0,0,O13*(-1))</f>
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(P13&gt;0,0,P13*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(Q13&gt;0,0,Q13*(-1))</f>
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(R13&gt;0,0,R13*(-1))</f>
         <v>6606.8730804253501</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(S13&gt;0,0,S13*(-1))</f>
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(T13&gt;0,0,T13*(-1))</f>
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(U13&gt;0,0,U13*(-1))</f>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(V13&gt;0,0,V13*(-1))</f>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(W13&gt;0,0,W13*(-1))</f>
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(X13&gt;0,0,X13*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(Y13&gt;0,0,Y13*(-1))</f>
         <v>21710.536935674001</v>
       </c>
     </row>
@@ -3014,95 +3014,95 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
-        <f t="shared" ref="C40:Y40" si="3">IF(C10&gt;0,0,C10*(-1))</f>
+        <f>IF(C14&gt;0,0,C14*(-1))</f>
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(D14&gt;0,0,D14*(-1))</f>
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(E14&gt;0,0,E14*(-1))</f>
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(F14&gt;0,0,F14*(-1))</f>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(G14&gt;0,0,G14*(-1))</f>
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(H14&gt;0,0,H14*(-1))</f>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(I14&gt;0,0,I14*(-1))</f>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(J14&gt;0,0,J14*(-1))</f>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(K14&gt;0,0,K14*(-1))</f>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L14&gt;0,0,L14*(-1))</f>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(M14&gt;0,0,M14*(-1))</f>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(N14&gt;0,0,N14*(-1))</f>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(O14&gt;0,0,O14*(-1))</f>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(P14&gt;0,0,P14*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(Q14&gt;0,0,Q14*(-1))</f>
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(R14&gt;0,0,R14*(-1))</f>
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(S14&gt;0,0,S14*(-1))</f>
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(T14&gt;0,0,T14*(-1))</f>
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(U14&gt;0,0,U14*(-1))</f>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(V14&gt;0,0,V14*(-1))</f>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(W14&gt;0,0,W14*(-1))</f>
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(X14&gt;0,0,X14*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(Y14&gt;0,0,Y14*(-1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3112,95 +3112,95 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <f t="shared" ref="C41:Y41" si="4">IF(C11&gt;0,0,C11*(-1))</f>
+        <f>IF(C15&gt;0,0,C15*(-1))</f>
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(D15&gt;0,0,D15*(-1))</f>
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(E15&gt;0,0,E15*(-1))</f>
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(F15&gt;0,0,F15*(-1))</f>
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(G15&gt;0,0,G15*(-1))</f>
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(H15&gt;0,0,H15*(-1))</f>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(I15&gt;0,0,I15*(-1))</f>
         <v>4151.3862301424097</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(J15&gt;0,0,J15*(-1))</f>
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(K15&gt;0,0,K15*(-1))</f>
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(L15&gt;0,0,L15*(-1))</f>
         <v>4151.3862301424097</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(M15&gt;0,0,M15*(-1))</f>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(N15&gt;0,0,N15*(-1))</f>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(O15&gt;0,0,O15*(-1))</f>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(P15&gt;0,0,P15*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(Q15&gt;0,0,Q15*(-1))</f>
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(R15&gt;0,0,R15*(-1))</f>
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(S15&gt;0,0,S15*(-1))</f>
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(T15&gt;0,0,T15*(-1))</f>
         <v>0</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(U15&gt;0,0,U15*(-1))</f>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(V15&gt;0,0,V15*(-1))</f>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(W15&gt;0,0,W15*(-1))</f>
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(X15&gt;0,0,X15*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="4"/>
+        <f>IF(Y15&gt;0,0,Y15*(-1))</f>
         <v>2162.1936647008101</v>
       </c>
     </row>
@@ -3210,95 +3210,95 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
-        <f t="shared" ref="C42:Y42" si="5">IF(C12&gt;0,0,C12*(-1))</f>
+        <f>IF(C16&gt;0,0,C16*(-1))</f>
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(D16&gt;0,0,D16*(-1))</f>
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(E16&gt;0,0,E16*(-1))</f>
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(F16&gt;0,0,F16*(-1))</f>
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(G16&gt;0,0,G16*(-1))</f>
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(H16&gt;0,0,H16*(-1))</f>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(I16&gt;0,0,I16*(-1))</f>
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(J16&gt;0,0,J16*(-1))</f>
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(K16&gt;0,0,K16*(-1))</f>
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(L16&gt;0,0,L16*(-1))</f>
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(M16&gt;0,0,M16*(-1))</f>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(N16&gt;0,0,N16*(-1))</f>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(O16&gt;0,0,O16*(-1))</f>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(P16&gt;0,0,P16*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(Q16&gt;0,0,Q16*(-1))</f>
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(R16&gt;0,0,R16*(-1))</f>
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(S16&gt;0,0,S16*(-1))</f>
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(T16&gt;0,0,T16*(-1))</f>
         <v>0</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(U16&gt;0,0,U16*(-1))</f>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(V16&gt;0,0,V16*(-1))</f>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(W16&gt;0,0,W16*(-1))</f>
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(X16&gt;0,0,X16*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(Y16&gt;0,0,Y16*(-1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3308,95 +3308,95 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <f t="shared" ref="C43:Y43" si="6">IF(C13&gt;0,0,C13*(-1))</f>
+        <f>IF(C17&gt;0,0,C17*(-1))</f>
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(D17&gt;0,0,D17*(-1))</f>
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(E17&gt;0,0,E17*(-1))</f>
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(F17&gt;0,0,F17*(-1))</f>
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(G17&gt;0,0,G17*(-1))</f>
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(H17&gt;0,0,H17*(-1))</f>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(I17&gt;0,0,I17*(-1))</f>
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(J17&gt;0,0,J17*(-1))</f>
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(K17&gt;0,0,K17*(-1))</f>
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(L17&gt;0,0,L17*(-1))</f>
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(M17&gt;0,0,M17*(-1))</f>
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(N17&gt;0,0,N17*(-1))</f>
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(O17&gt;0,0,O17*(-1))</f>
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(P17&gt;0,0,P17*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(Q17&gt;0,0,Q17*(-1))</f>
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(R17&gt;0,0,R17*(-1))</f>
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(S17&gt;0,0,S17*(-1))</f>
         <v>0</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(T17&gt;0,0,T17*(-1))</f>
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(U17&gt;0,0,U17*(-1))</f>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(V17&gt;0,0,V17*(-1))</f>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(W17&gt;0,0,W17*(-1))</f>
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(X17&gt;0,0,X17*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="6"/>
+        <f>IF(Y17&gt;0,0,Y17*(-1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3406,95 +3406,95 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <f t="shared" ref="C44:Y44" si="7">IF(C14&gt;0,0,C14*(-1))</f>
+        <f>IF(C18&gt;0,0,C18*(-1))</f>
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(D18&gt;0,0,D18*(-1))</f>
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(E18&gt;0,0,E18*(-1))</f>
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(F18&gt;0,0,F18*(-1))</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(G18&gt;0,0,G18*(-1))</f>
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(H18&gt;0,0,H18*(-1))</f>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(I18&gt;0,0,I18*(-1))</f>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(J18&gt;0,0,J18*(-1))</f>
         <v>0</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(K18&gt;0,0,K18*(-1))</f>
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(L18&gt;0,0,L18*(-1))</f>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(M18&gt;0,0,M18*(-1))</f>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(N18&gt;0,0,N18*(-1))</f>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(O18&gt;0,0,O18*(-1))</f>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(P18&gt;0,0,P18*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(Q18&gt;0,0,Q18*(-1))</f>
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(R18&gt;0,0,R18*(-1))</f>
         <v>0</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(S18&gt;0,0,S18*(-1))</f>
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(T18&gt;0,0,T18*(-1))</f>
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(U18&gt;0,0,U18*(-1))</f>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(V18&gt;0,0,V18*(-1))</f>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(W18&gt;0,0,W18*(-1))</f>
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(X18&gt;0,0,X18*(-1))</f>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="7"/>
+        <f>IF(Y18&gt;0,0,Y18*(-1))</f>
         <v>0</v>
       </c>
     </row>
@@ -3504,95 +3504,95 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <f t="shared" ref="C45:Y45" si="8">IF(C15&gt;0,0,C15*(-1))</f>
+        <f>IF(C19&gt;0,0,C19*(-1))</f>
         <v>2768.9721363142398</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(D19&gt;0,0,D19*(-1))</f>
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(E19&gt;0,0,E19*(-1))</f>
         <v>29004.1513388118</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(F19&gt;0,0,F19*(-1))</f>
         <v>21113.158502591501</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(G19&gt;0,0,G19*(-1))</f>
         <v>8021.6403356793098</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(H19&gt;0,0,H19*(-1))</f>
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(I19&gt;0,0,I19*(-1))</f>
         <v>5915.3016695064798</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(J19&gt;0,0,J19*(-1))</f>
         <v>51624.4593951637</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(K19&gt;0,0,K19*(-1))</f>
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(L19&gt;0,0,L19*(-1))</f>
         <v>118447.683378067</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(M19&gt;0,0,M19*(-1))</f>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(N19&gt;0,0,N19*(-1))</f>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(O19&gt;0,0,O19*(-1))</f>
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(P19&gt;0,0,P19*(-1))</f>
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(Q19&gt;0,0,Q19*(-1))</f>
         <v>93.427478502099405</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(R19&gt;0,0,R19*(-1))</f>
         <v>18153.441017067002</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(S19&gt;0,0,S19*(-1))</f>
         <v>0</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(T19&gt;0,0,T19*(-1))</f>
         <v>0</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(U19&gt;0,0,U19*(-1))</f>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(V19&gt;0,0,V19*(-1))</f>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(W19&gt;0,0,W19*(-1))</f>
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(X19&gt;0,0,X19*(-1))</f>
         <v>18246.868495569099</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="8"/>
+        <f>IF(Y19&gt;0,0,Y19*(-1))</f>
         <v>94374.882684051496</v>
       </c>
     </row>
@@ -3602,95 +3602,95 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:Y47" si="9">C16+C17+C18+C25+C26+C45</f>
+        <f>C20+C21+C22+C29+C30+C45</f>
         <v>2768.9721363142194</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="9"/>
+        <f>D20+D21+D22+D29+D30+D45</f>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="9"/>
+        <f>E20+E21+E22+E29+E30+E45</f>
         <v>29004.151338811804</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="9"/>
+        <f>F20+F21+F22+F29+F30+F45</f>
         <v>21113.158502591494</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="9"/>
+        <f>G20+G21+G22+G29+G30+G45</f>
         <v>8021.6403356793098</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="9"/>
+        <f>H20+H21+H22+H29+H30+H45</f>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="9"/>
+        <f>I20+I21+I22+I29+I30+I45</f>
         <v>247502.909179334</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="9"/>
+        <f>J20+J21+J22+J29+J30+J45</f>
         <v>51624.4593951637</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="9"/>
+        <f>K20+K21+K22+K29+K30+K45</f>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="9"/>
+        <f>L20+L21+L22+L29+L30+L45</f>
         <v>360035.29088789452</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="9"/>
+        <f>M20+M21+M22+M29+M30+M45</f>
         <v>36545.066942036763</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="9"/>
+        <f>N20+N21+N22+N29+N30+N45</f>
         <v>13102.20222909019</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="9"/>
+        <f>O20+O21+O22+O29+O30+O45</f>
         <v>44103.169949635223</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="9"/>
+        <f>P20+P21+P22+P29+P30+P45</f>
         <v>3246.7355254474114</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="9"/>
+        <f>Q20+Q21+Q22+Q29+Q30+Q45</f>
         <v>58086.865373964851</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="9"/>
+        <f>R20+R21+R22+R29+R30+R45</f>
         <v>19483.66482378211</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="9"/>
+        <f>S20+S21+S22+S29+S30+S45</f>
         <v>5829.7236880871951</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="9"/>
+        <f>T20+T21+T22+T29+T30+T45</f>
         <v>1989.1925654415998</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="9"/>
+        <f>U20+U21+U22+U29+U30+U45</f>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="9"/>
+        <f>V20+V21+V22+V29+V30+V45</f>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" si="9"/>
+        <f>W20+W21+W22+W29+W30+W45</f>
         <v>1124.4975442334703</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="9"/>
+        <f>X20+X21+X22+X29+X30+X45</f>
         <v>183511.11864171922</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="9"/>
+        <f>Y20+Y21+Y22+Y29+Y30+Y45</f>
         <v>501226.74034002831</v>
       </c>
     </row>
@@ -3700,95 +3700,95 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8">
-        <f>C29-C47</f>
+        <f>C33-C47</f>
         <v>1.546140993013978E-11</v>
       </c>
       <c r="D48" s="8">
-        <f>D29-D47</f>
+        <f>D33-D47</f>
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f>E29-E47</f>
+        <f>E33-E47</f>
         <v>-5.8207660913467407E-11</v>
       </c>
       <c r="F48" s="8">
-        <f>F29-F47</f>
+        <f>F33-F47</f>
         <v>0</v>
       </c>
       <c r="G48" s="8">
-        <f>G29-G47</f>
+        <f>G33-G47</f>
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <f>H29-H47</f>
+        <f>H33-H47</f>
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <f>I29-I47</f>
+        <f>I33-I47</f>
         <v>0</v>
       </c>
       <c r="J48" s="8">
-        <f>J29-J47</f>
+        <f>J33-J47</f>
         <v>0</v>
       </c>
       <c r="K48" s="8">
-        <f>K29-K47</f>
+        <f>K33-K47</f>
         <v>0</v>
       </c>
       <c r="L48" s="8">
-        <f>L29-L47</f>
+        <f>L33-L47</f>
         <v>0</v>
       </c>
       <c r="M48" s="8">
-        <f>M29-M47</f>
+        <f>M33-M47</f>
         <v>0</v>
       </c>
       <c r="N48" s="8">
-        <f>N29-N47</f>
+        <f>N33-N47</f>
         <v>0</v>
       </c>
       <c r="O48" s="8">
-        <f>O29-O47</f>
+        <f>O33-O47</f>
         <v>0</v>
       </c>
       <c r="P48" s="8">
-        <f>P29-P47</f>
+        <f>P33-P47</f>
         <v>-6.3664629124104977E-12</v>
       </c>
       <c r="Q48" s="8">
-        <f>Q29-Q47</f>
+        <f>Q33-Q47</f>
         <v>0</v>
       </c>
       <c r="R48" s="8">
-        <f>R29-R47</f>
+        <f>R33-R47</f>
         <v>0</v>
       </c>
       <c r="S48" s="8">
-        <f>S29-S47</f>
+        <f>S33-S47</f>
         <v>0</v>
       </c>
       <c r="T48" s="8">
-        <f>T29-T47</f>
+        <f>T33-T47</f>
         <v>0</v>
       </c>
       <c r="U48" s="8">
-        <f>U29-U47</f>
+        <f>U33-U47</f>
         <v>0</v>
       </c>
       <c r="V48" s="8">
-        <f>V29-V47</f>
+        <f>V33-V47</f>
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <f>W29-W47</f>
+        <f>W33-W47</f>
         <v>-4.3200998334214091E-12</v>
       </c>
       <c r="X48" s="8">
-        <f>X29-X47</f>
+        <f>X33-X47</f>
         <v>-7.8580342233181E-10</v>
       </c>
       <c r="Y48" s="8">
-        <f>Y29-Y47</f>
+        <f>Y33-Y47</f>
         <v>8.7311491370201111E-10</v>
       </c>
     </row>
@@ -3822,95 +3822,95 @@
         <v>56</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" ref="C50:Y50" si="10">C1+C2</f>
+        <f>C5+C6</f>
         <v>21015.666435217401</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="10"/>
+        <f>D5+D6</f>
         <v>0</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="10"/>
+        <f>E5+E6</f>
         <v>37713.229783867297</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="10"/>
+        <f>F5+F6</f>
         <v>21113.158502591501</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="10"/>
+        <f>G5+G6</f>
         <v>8021.6403356793098</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="10"/>
+        <f>H5+H6</f>
         <v>0</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="10"/>
+        <f>I5+I6</f>
         <v>245738.99373997</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="10"/>
+        <f>J5+J6</f>
         <v>51624.4593951637</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="10"/>
+        <f>K5+K6</f>
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="10"/>
+        <f>L5+L6</f>
         <v>385227.14819248929</v>
       </c>
       <c r="M50" s="9">
-        <f>M1+M2</f>
+        <f>M5+M6</f>
         <v>38659.988663280987</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" ref="N50:Y50" si="11">N1+N2</f>
+        <f>N5+N6</f>
         <v>19110.8258931034</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="11"/>
+        <f>O5+O6</f>
         <v>44590.339958729448</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="11"/>
+        <f>P5+P6</f>
         <v>4253.0696646145152</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="11"/>
+        <f>Q5+Q6</f>
         <v>57770.69842527376</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="11"/>
+        <f>R5+R6</f>
         <v>19655.074343072502</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="11"/>
+        <f>S5+S6</f>
         <v>5973.6101341581698</v>
       </c>
       <c r="T50" s="9">
-        <f t="shared" si="11"/>
+        <f>T5+T6</f>
         <v>1989.1925654416</v>
       </c>
       <c r="U50" s="9">
-        <f t="shared" si="11"/>
+        <f>U5+U6</f>
         <v>0</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" si="11"/>
+        <f>V5+V6</f>
         <v>0</v>
       </c>
       <c r="W50" s="9">
-        <f t="shared" si="11"/>
+        <f>W5+W6</f>
         <v>1345.785375539557</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="11"/>
+        <f>X5+X6</f>
         <v>193348.58502321359</v>
       </c>
       <c r="Y50" s="9">
-        <f t="shared" si="11"/>
+        <f>Y5+Y6</f>
         <v>536256.06402611895</v>
       </c>
     </row>
@@ -3919,95 +3919,95 @@
         <v>57</v>
       </c>
       <c r="C51" s="9">
-        <f>C3+C4*(-1)+C5+C16+C17+C18+C25+C26+SUM(C37:C44)</f>
+        <f>C7+C8*(-1)+C9+C20+C21+C22+C29+C30+SUM(C37:C44)</f>
         <v>21015.666435217383</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" ref="D51:Y51" si="12">D3+D4*(-1)+D5+D16+D17+D18+D25+D26+SUM(D37:D44)</f>
+        <f>D7+D8*(-1)+D9+D20+D21+D22+D29+D30+SUM(D37:D44)</f>
         <v>0</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="12"/>
+        <f>E7+E8*(-1)+E9+E20+E21+E22+E29+E30+SUM(E37:E44)</f>
         <v>37713.229783867384</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="12"/>
+        <f>F7+F8*(-1)+F9+F20+F21+F22+F29+F30+SUM(F37:F44)</f>
         <v>21113.158502591523</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="12"/>
+        <f>G7+G8*(-1)+G9+G20+G21+G22+G29+G30+SUM(G37:G44)</f>
         <v>8021.6403356793098</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="12"/>
+        <f>H7+H8*(-1)+H9+H20+H21+H22+H29+H30+SUM(H37:H44)</f>
         <v>0</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="12"/>
+        <f>I7+I8*(-1)+I9+I20+I21+I22+I29+I30+SUM(I37:I44)</f>
         <v>245738.99373996994</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="12"/>
+        <f>J7+J8*(-1)+J9+J20+J21+J22+J29+J30+SUM(J37:J44)</f>
         <v>51624.4593951637</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" si="12"/>
+        <f>K7+K8*(-1)+K9+K20+K21+K22+K29+K30+SUM(K37:K44)</f>
         <v>0</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="12"/>
+        <f>L7+L8*(-1)+L9+L20+L21+L22+L29+L30+SUM(L37:L44)</f>
         <v>385227.14819248923</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="12"/>
+        <f>M7+M8*(-1)+M9+M20+M21+M22+M29+M30+SUM(M37:M44)</f>
         <v>38659.988663280994</v>
       </c>
       <c r="N51" s="9">
-        <f t="shared" si="12"/>
+        <f>N7+N8*(-1)+N9+N20+N21+N22+N29+N30+SUM(N37:N44)</f>
         <v>19110.8258931034</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="12"/>
+        <f>O7+O8*(-1)+O9+O20+O21+O22+O29+O30+SUM(O37:O44)</f>
         <v>44590.339958729448</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="12"/>
+        <f>P7+P8*(-1)+P9+P20+P21+P22+P29+P30+SUM(P37:P44)</f>
         <v>4253.0696646145216</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" si="12"/>
+        <f>Q7+Q8*(-1)+Q9+Q20+Q21+Q22+Q29+Q30+SUM(Q37:Q44)</f>
         <v>57770.698425273775</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="12"/>
+        <f>R7+R8*(-1)+R9+R20+R21+R22+R29+R30+SUM(R37:R44)</f>
         <v>19655.074343072523</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="12"/>
+        <f>S7+S8*(-1)+S9+S20+S21+S22+S29+S30+SUM(S37:S44)</f>
         <v>5973.6101341581716</v>
       </c>
       <c r="T51" s="9">
-        <f t="shared" si="12"/>
+        <f>T7+T8*(-1)+T9+T20+T21+T22+T29+T30+SUM(T37:T44)</f>
         <v>1989.1925654415998</v>
       </c>
       <c r="U51" s="9">
-        <f t="shared" si="12"/>
+        <f>U7+U8*(-1)+U9+U20+U21+U22+U29+U30+SUM(U37:U44)</f>
         <v>0</v>
       </c>
       <c r="V51" s="9">
-        <f t="shared" si="12"/>
+        <f>V7+V8*(-1)+V9+V20+V21+V22+V29+V30+SUM(V37:V44)</f>
         <v>0</v>
       </c>
       <c r="W51" s="9">
-        <f t="shared" si="12"/>
+        <f>W7+W8*(-1)+W9+W20+W21+W22+W29+W30+SUM(W37:W44)</f>
         <v>1345.7853755395613</v>
       </c>
       <c r="X51" s="9">
-        <f t="shared" si="12"/>
+        <f>X7+X8*(-1)+X9+X20+X21+X22+X29+X30+SUM(X37:X44)</f>
         <v>175101.71652764527</v>
       </c>
       <c r="Y51" s="9">
-        <f t="shared" si="12"/>
+        <f>Y7+Y8*(-1)+Y9+Y20+Y21+Y22+Y29+Y30+SUM(Y37:Y44)</f>
         <v>536256.06402611826</v>
       </c>
     </row>
@@ -4020,91 +4020,91 @@
         <v>0</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:Y53" si="13">D50-D51</f>
+        <f t="shared" ref="D53:Y53" si="0">D50-D51</f>
         <v>0</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>-8.7311491370201111E-11</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>-4.3200998334214091E-12</v>
       </c>
       <c r="X53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>18246.868495568313</v>
       </c>
       <c r="Y53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:X36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
